--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -9,11 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MainData" sheetId="3" r:id="rId1"/>
+    <sheet name="Fruits" sheetId="1" r:id="rId2"/>
+    <sheet name="Vegetables" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Calculate" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fruits!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vegetables!$A$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,22 +32,460 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>banana</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>fruit-blackberry-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-blackberry-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-blueberry-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-blueberry-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-cherry-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-cherry-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-coconut-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-coconut-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-custardapple-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-custardapple-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-dragon-fruit-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-dragon-fruit-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-fig-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-fig-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-grapefruit-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-grapefruit-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-grapefruit-3.jpg</t>
+  </si>
+  <si>
+    <t>fruit-grapes-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-grapes-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-grapes-3.jpg</t>
+  </si>
+  <si>
+    <t>fruit-guava-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-guava-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-jackfruit-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-jackfruit-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-kiwi-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-kiwi-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-lemon-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-lemon-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-lemon-3.jpg</t>
+  </si>
+  <si>
+    <t>fruit-mango-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-mango-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-mango-3.jpg</t>
+  </si>
+  <si>
+    <t>fruit-orange-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-orange-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-papaya-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-papaya-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-peach-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-peach-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-pear-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-pear-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-pineapple-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-pineapple-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-plum-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-plum-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-pomegranate-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-pomegranate-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-quince-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-strawberrie-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-strawberrie-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-tamarind-1.jpg</t>
+  </si>
+  <si>
+    <t>fruit-tamarind-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-waterlemon-2.jpg</t>
+  </si>
+  <si>
+    <t>fruit-watermelon-1.jpg</t>
+  </si>
+  <si>
+    <t>hass-avocados-5537945_1280.jpg</t>
+  </si>
+  <si>
+    <t>ruit-quince-1.jpg</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Avocados</t>
+  </si>
+  <si>
+    <t>Custard Apple</t>
+  </si>
+  <si>
+    <t>Dragon Fruit</t>
+  </si>
+  <si>
+    <t>Jackfruit</t>
+  </si>
+  <si>
+    <t>Grapefruit</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>human-body-parts</t>
+  </si>
+  <si>
+    <t>food-names</t>
+  </si>
+  <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>stationary-items</t>
+  </si>
+  <si>
+    <t>math-symbols</t>
+  </si>
+  <si>
+    <t>vehicles</t>
+  </si>
+  <si>
+    <t>Human Body Parts</t>
+  </si>
+  <si>
+    <t>Food Names</t>
+  </si>
+  <si>
+    <t>Stationary Items</t>
+  </si>
+  <si>
+    <t>Math Symbols</t>
+  </si>
+  <si>
+    <t>Ash gourd</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Bitter gourd</t>
+  </si>
+  <si>
+    <t>Elephant yam</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Spring onion</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Capsicum</t>
+  </si>
+  <si>
+    <t>Turnip</t>
+  </si>
+  <si>
+    <t>Brinjal</t>
+  </si>
+  <si>
+    <t>Cluster beans</t>
+  </si>
+  <si>
+    <t>Green peas</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Apple gourd</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Ridge gourd</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Chow chow</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Lady’s finger</t>
+  </si>
+  <si>
+    <t>Snake gourd</t>
+  </si>
+  <si>
+    <t>Ivy gourd/Scarlet gourd</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Lab lab</t>
+  </si>
+  <si>
+    <t>Green papaya</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Bottle gourd</t>
+  </si>
+  <si>
+    <t>Snake beans/Yard long beans</t>
+  </si>
+  <si>
+    <t>Drumstick</t>
+  </si>
+  <si>
+    <t>White pumpkin</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>Field beans/Broad beans</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>Label/Word</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>Blackberry</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>Fig</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Quince</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Keyword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,8 +508,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,24 +791,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="157.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <f>"{""label"":"""&amp;A2&amp;""", ""word"":"""&amp;A1&amp;""", ""imgUrls"": [""fruit-"&amp;A1&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A1&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"", "word":"banana", "imgUrls": ["fruit-banana-1.jpg?raw=true", "fruit-banana-2.jpg?raw=true"]}, </v>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="str">
+        <f>PROPER(A2)</f>
+        <v>Animals</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"{ ""label"": """&amp;PROPER(B2)&amp;""",   ""word"": """&amp;B2&amp;""",   ""imgUrl"": ""https://github.com/prasadmarineni/kids/blob/main/data/img/"&amp;A2&amp;".jpg?raw=true"",  ""subItems"": [   ] }"""</f>
+        <v>{ "label": "Animals",   "word": "Animals",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/animals.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B13" si="0">PROPER(A3)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"{ ""label"": """&amp;PROPER(B3)&amp;""",   ""word"": """&amp;B3&amp;""",   ""imgUrl"": ""https://github.com/prasadmarineni/kids/blob/main/data/img/"&amp;A3&amp;".jpg?raw=true"",  ""subItems"": [   ] }"""</f>
+        <v>{ "label": "Fruits",   "word": "Fruits",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/fruits.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Vegetables</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"{ ""label"": """&amp;PROPER(B4)&amp;""",   ""word"": """&amp;B4&amp;""",   ""imgUrl"": ""https://github.com/prasadmarineni/kids/blob/main/data/img/"&amp;A4&amp;".jpg?raw=true"",  ""subItems"": [   ] }"""</f>
+        <v>{ "label": "Vegetables",   "word": "Vegetables",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/vegetables.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Birds</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C13" si="1">"{ ""label"": """&amp;PROPER(B5)&amp;""",   ""word"": """&amp;B5&amp;""",   ""imgUrl"": ""https://github.com/prasadmarineni/kids/blob/main/data/img/"&amp;A5&amp;".jpg?raw=true"",  ""subItems"": [   ] }"""</f>
+        <v>{ "label": "Birds",   "word": "Birds",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/birds.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Colors</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Colors",   "word": "Colors",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/colors.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicles</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Vehicles",   "word": "Vehicles",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/vehicles.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Human Body Parts",   "word": "Human Body Parts",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/human-body-parts.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Food Names",   "word": "Food Names",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/food-names.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Flowers</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Flowers",   "word": "Flowers",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/flowers.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Clothes</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Clothes",   "word": "Clothes",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/clothes.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Stationary Items",   "word": "Stationary Items",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/stationary-items.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "label": "Math Symbols",   "word": "Math Symbols",   "imgUrl": "https://github.com/prasadmarineni/kids/blob/main/data/img/math-symbols.jpg?raw=true",  "subItems": [   ] }"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="str">
+        <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
+        <v>apple</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"{""label"":"""&amp;A2&amp;""", ""word"":"""&amp;A2&amp;""", ""imgUrls"": [""fruit-"&amp;B2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;B2&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Apple", "word":"Apple", "imgUrls": ["fruit-apple-1.jpg?raw=true", "fruit-apple-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B29" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
+        <v>apricot</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C29" si="1">"{""label"":"""&amp;A3&amp;""", ""word"":"""&amp;A3&amp;""", ""imgUrls"": [""fruit-"&amp;B3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;B3&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Apricot", "word":"Apricot", "imgUrls": ["fruit-apricot-1.jpg?raw=true", "fruit-apricot-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>avocados</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Avocados", "word":"Avocados", "imgUrls": ["fruit-avocados-1.jpg?raw=true", "fruit-avocados-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>blackberry</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Blackberry", "word":"Blackberry", "imgUrls": ["fruit-blackberry-1.jpg?raw=true", "fruit-blackberry-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>blueberry</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Blueberry", "word":"Blueberry", "imgUrls": ["fruit-blueberry-1.jpg?raw=true", "fruit-blueberry-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>cherry</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cherry", "word":"Cherry", "imgUrls": ["fruit-cherry-1.jpg?raw=true", "fruit-cherry-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>coconut</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Coconut", "word":"Coconut", "imgUrls": ["fruit-coconut-1.jpg?raw=true", "fruit-coconut-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>custardapple</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Custard Apple", "word":"Custard Apple", "imgUrls": ["fruit-custardapple-1.jpg?raw=true", "fruit-custardapple-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>dragonfruit</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Dragon Fruit", "word":"Dragon Fruit", "imgUrls": ["fruit-dragonfruit-1.jpg?raw=true", "fruit-dragonfruit-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>fig</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Fig", "word":"Fig", "imgUrls": ["fruit-fig-1.jpg?raw=true", "fruit-fig-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>grapefruit</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Grapefruit", "word":"Grapefruit", "imgUrls": ["fruit-grapefruit-1.jpg?raw=true", "fruit-grapefruit-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>grapes</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Grapes", "word":"Grapes", "imgUrls": ["fruit-grapes-1.jpg?raw=true", "fruit-grapes-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>guava</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Guava", "word":"Guava", "imgUrls": ["fruit-guava-1.jpg?raw=true", "fruit-guava-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>jackfruit</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Jackfruit", "word":"Jackfruit", "imgUrls": ["fruit-jackfruit-1.jpg?raw=true", "fruit-jackfruit-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>kiwi</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Kiwi", "word":"Kiwi", "imgUrls": ["fruit-kiwi-1.jpg?raw=true", "fruit-kiwi-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>lemon</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lemon", "word":"Lemon", "imgUrls": ["fruit-lemon-1.jpg?raw=true", "fruit-lemon-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>mango</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Mango", "word":"Mango", "imgUrls": ["fruit-mango-1.jpg?raw=true", "fruit-mango-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>orange</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Orange", "word":"Orange", "imgUrls": ["fruit-orange-1.jpg?raw=true", "fruit-orange-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>papaya</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Papaya", "word":"Papaya", "imgUrls": ["fruit-papaya-1.jpg?raw=true", "fruit-papaya-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>peach</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Peach", "word":"Peach", "imgUrls": ["fruit-peach-1.jpg?raw=true", "fruit-peach-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>pear</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pear", "word":"Pear", "imgUrls": ["fruit-pear-1.jpg?raw=true", "fruit-pear-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>pineapple</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pineapple", "word":"Pineapple", "imgUrls": ["fruit-pineapple-1.jpg?raw=true", "fruit-pineapple-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>plum</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Plum", "word":"Plum", "imgUrls": ["fruit-plum-1.jpg?raw=true", "fruit-plum-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>pomegranate</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pomegranate", "word":"Pomegranate", "imgUrls": ["fruit-pomegranate-1.jpg?raw=true", "fruit-pomegranate-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>quince</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Quince", "word":"Quince", "imgUrls": ["fruit-quince-1.jpg?raw=true", "fruit-quince-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>strawberries</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Strawberries", "word":"Strawberries", "imgUrls": ["fruit-strawberries-1.jpg?raw=true", "fruit-strawberries-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>tamarind</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Tamarind", "word":"Tamarind", "imgUrls": ["fruit-tamarind-1.jpg?raw=true", "fruit-tamarind-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>watermelon</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Watermelon", "word":"Watermelon", "imgUrls": ["fruit-watermelon-1.jpg?raw=true", "fruit-watermelon-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C29">
+    <sortState ref="A2:C29">
+      <sortCondition ref="A1:A29"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="str">
+        <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
+        <v>ashgourd</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"{""label"":"""&amp;A2&amp;""", ""word"":"""&amp;A2&amp;""", ""imgUrls"": [""fruit-"&amp;B2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;B2&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Ash gourd", "word":"Ash gourd", "imgUrls": ["fruit-ashgourd-1.jpg?raw=true", "fruit-ashgourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B41" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
+        <v>bittergourd</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C41" si="1">"{""label"":"""&amp;A3&amp;""", ""word"":"""&amp;A3&amp;""", ""imgUrls"": [""fruit-"&amp;B3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;B3&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Bitter gourd", "word":"Bitter gourd", "imgUrls": ["fruit-bittergourd-1.jpg?raw=true", "fruit-bittergourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>potato</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["fruit-potato-1.jpg?raw=true", "fruit-potato-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>clusterbeans</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cluster beans", "word":"Cluster beans", "imgUrls": ["fruit-clusterbeans-1.jpg?raw=true", "fruit-clusterbeans-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>onion</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Onion", "word":"Onion", "imgUrls": ["fruit-onion-1.jpg?raw=true", "fruit-onion-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>garlic</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Garlic", "word":"Garlic", "imgUrls": ["fruit-garlic-1.jpg?raw=true", "fruit-garlic-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>lady’sfinger</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lady’s finger", "word":"Lady’s finger", "imgUrls": ["fruit-lady’sfinger-1.jpg?raw=true", "fruit-lady’sfinger-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>beans</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Beans", "word":"Beans", "imgUrls": ["fruit-beans-1.jpg?raw=true", "fruit-beans-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>pumpkin</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["fruit-pumpkin-1.jpg?raw=true", "fruit-pumpkin-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>whitepumpkin</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"White pumpkin", "word":"White pumpkin", "imgUrls": ["fruit-whitepumpkin-1.jpg?raw=true", "fruit-whitepumpkin-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>broccoli</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Broccoli", "word":"Broccoli", "imgUrls": ["fruit-broccoli-1.jpg?raw=true", "fruit-broccoli-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>elephantyam</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Elephant yam", "word":"Elephant yam", "imgUrls": ["fruit-elephantyam-1.jpg?raw=true", "fruit-elephantyam-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>capsicum</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Capsicum", "word":"Capsicum", "imgUrls": ["fruit-capsicum-1.jpg?raw=true", "fruit-capsicum-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>greenpeas</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Green peas", "word":"Green peas", "imgUrls": ["fruit-greenpeas-1.jpg?raw=true", "fruit-greenpeas-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>cauliflower</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cauliflower", "word":"Cauliflower", "imgUrls": ["fruit-cauliflower-1.jpg?raw=true", "fruit-cauliflower-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>cabbage</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cabbage", "word":"Cabbage", "imgUrls": ["fruit-cabbage-1.jpg?raw=true", "fruit-cabbage-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>snakegourd</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Snake gourd", "word":"Snake gourd", "imgUrls": ["fruit-snakegourd-1.jpg?raw=true", "fruit-snakegourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>lablab</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lab lab", "word":"Lab lab", "imgUrls": ["fruit-lablab-1.jpg?raw=true", "fruit-lablab-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>bottlegourd</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Bottle gourd", "word":"Bottle gourd", "imgUrls": ["fruit-bottlegourd-1.jpg?raw=true", "fruit-bottlegourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>radish</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Radish", "word":"Radish", "imgUrls": ["fruit-radish-1.jpg?raw=true", "fruit-radish-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>cucumber</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cucumber", "word":"Cucumber", "imgUrls": ["fruit-cucumber-1.jpg?raw=true", "fruit-cucumber-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>carrot</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Carrot", "word":"Carrot", "imgUrls": ["fruit-carrot-1.jpg?raw=true", "fruit-carrot-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>turnip</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Turnip", "word":"Turnip", "imgUrls": ["fruit-turnip-1.jpg?raw=true", "fruit-turnip-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>ginger</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Ginger", "word":"Ginger", "imgUrls": ["fruit-ginger-1.jpg?raw=true", "fruit-ginger-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>beetroot</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Beetroot", "word":"Beetroot", "imgUrls": ["fruit-beetroot-1.jpg?raw=true", "fruit-beetroot-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>chowchow</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Chow chow", "word":"Chow chow", "imgUrls": ["fruit-chowchow-1.jpg?raw=true", "fruit-chowchow-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>ivygourd/scarletgourd</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Ivy gourd/Scarlet gourd", "word":"Ivy gourd/Scarlet gourd", "imgUrls": ["fruit-ivygourd/scarletgourd-1.jpg?raw=true", "fruit-ivygourd/scarletgourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>greenpapaya</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Green papaya", "word":"Green papaya", "imgUrls": ["fruit-greenpapaya-1.jpg?raw=true", "fruit-greenpapaya-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>snakebeans/yardlongbeans</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Snake beans/Yard long beans", "word":"Snake beans/Yard long beans", "imgUrls": ["fruit-snakebeans/yardlongbeans-1.jpg?raw=true", "fruit-snakebeans/yardlongbeans-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>fieldbeans/broadbeans</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Field beans/Broad beans", "word":"Field beans/Broad beans", "imgUrls": ["fruit-fieldbeans/broadbeans-1.jpg?raw=true", "fruit-fieldbeans/broadbeans-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>celery</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Celery", "word":"Celery", "imgUrls": ["fruit-celery-1.jpg?raw=true", "fruit-celery-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>springonion</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Spring onion", "word":"Spring onion", "imgUrls": ["fruit-springonion-1.jpg?raw=true", "fruit-springonion-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>brinjal</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Brinjal", "word":"Brinjal", "imgUrls": ["fruit-brinjal-1.jpg?raw=true", "fruit-brinjal-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>applegourd</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Apple gourd", "word":"Apple gourd", "imgUrls": ["fruit-applegourd-1.jpg?raw=true", "fruit-applegourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>ridgegourd</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Ridge gourd", "word":"Ridge gourd", "imgUrls": ["fruit-ridgegourd-1.jpg?raw=true", "fruit-ridgegourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>mushroom</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Mushroom", "word":"Mushroom", "imgUrls": ["fruit-mushroom-1.jpg?raw=true", "fruit-mushroom-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>spinach</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Spinach", "word":"Spinach", "imgUrls": ["fruit-spinach-1.jpg?raw=true", "fruit-spinach-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>corn</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Corn", "word":"Corn", "imgUrls": ["fruit-corn-1.jpg?raw=true", "fruit-corn-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>drumstick</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["fruit-drumstick-1.jpg?raw=true", "fruit-drumstick-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>zucchini</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Zucchini", "word":"Zucchini", "imgUrls": ["fruit-zucchini-1.jpg?raw=true", "fruit-zucchini-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>MID(A1, FIND( "-", A1) + 1, FIND( ".", A1)-9)</f>
+        <v>blackberry</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>MID(A2, FIND( "-", A2) + 1, FIND( ".", A2)-9)</f>
+        <v>blackberry</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B55" si="0">MID(A3, FIND( "-", A3) + 1, FIND( ".", A3)-9)</f>
+        <v>blueberry</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>blueberry</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cherry</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cherry</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>coconut</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>coconut</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>custardapple</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>custardapple</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>dragon-fruit</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>dragon-fruit</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>fig</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>fig</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>grapefruit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>grapefruit</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>grapefruit</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>grapes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>grapes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>grapes</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>guava</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>guava</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>jackfruit</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>jackfruit</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>kiwi</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>kiwi</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lemon</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lemon</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lemon</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mango</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mango</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mango</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>orange</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>orange</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>papaya</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>papaya</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>peach</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>peach</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pear</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pear</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pineapple</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pineapple</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>plum</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>plum</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pomegranate</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pomegranate</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>quince</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>strawberrie</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>strawberrie</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>tamarind</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>tamarind</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>waterlemon</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>watermelon</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avocados-5537945_1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>quinc</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainData" sheetId="3" r:id="rId1"/>
     <sheet name="Fruits" sheetId="1" r:id="rId2"/>
     <sheet name="Vegetables" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Calculate" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
+    <sheet name="Calculate" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fruits!$A$1:$C$29</definedName>
@@ -211,9 +212,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Avocados</t>
-  </si>
-  <si>
     <t>Custard Apple</t>
   </si>
   <si>
@@ -467,6 +465,9 @@
   </si>
   <si>
     <t>Keyword</t>
+  </si>
+  <si>
+    <t>Avocado</t>
   </si>
 </sst>
 </file>
@@ -817,7 +818,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="str">
         <f>PROPER(A2)</f>
@@ -843,7 +844,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -856,7 +857,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -869,7 +870,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -882,7 +883,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -895,10 +896,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -907,10 +908,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
@@ -919,7 +920,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -932,7 +933,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -945,10 +946,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -957,10 +958,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -977,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,10 +991,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1001,7 +1002,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
@@ -1014,7 +1015,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B29" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
@@ -1027,20 +1028,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>avocados</v>
+        <f>LOWER(SUBSTITUTE(A4, " ", ""))</f>
+        <v>avocado</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Avocados", "word":"Avocados", "imgUrls": ["fruit-avocados-1.jpg?raw=true", "fruit-avocados-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Avocado", "word":"Avocado", "imgUrls": ["fruit-avocado-1.jpg?raw=true", "fruit-avocado-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1053,7 +1054,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1066,7 +1067,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1079,7 +1080,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1092,7 +1093,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1105,7 +1106,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1118,7 +1119,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1131,7 +1132,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1144,7 +1145,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1157,7 +1158,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1170,7 +1171,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1183,7 +1184,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1196,7 +1197,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1209,7 +1210,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1222,7 +1223,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1235,7 +1236,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1248,7 +1249,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1261,7 +1262,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1275,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1287,7 +1288,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1300,7 +1301,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1313,7 +1314,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1327,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1339,7 +1340,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1352,7 +1353,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -1378,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1391,10 +1392,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1402,7 +1403,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
@@ -1415,7 +1416,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B41" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
@@ -1428,7 +1429,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -1441,7 +1442,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1467,7 +1468,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1480,7 +1481,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1493,7 +1494,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1506,7 +1507,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1519,7 +1520,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1533,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1545,7 +1546,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1558,7 +1559,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1571,7 +1572,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1584,7 +1585,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1597,7 +1598,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1610,7 +1611,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1623,7 +1624,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1636,7 +1637,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1649,7 +1650,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1662,7 +1663,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1675,7 +1676,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1688,7 +1689,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1701,7 +1702,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1714,7 +1715,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1727,7 +1728,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1740,7 +1741,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1754,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -1766,7 +1767,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -1779,7 +1780,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -1792,7 +1793,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -1805,7 +1806,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -1818,7 +1819,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -1831,7 +1832,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -1844,7 +1845,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -1857,7 +1858,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1870,7 +1871,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1883,7 +1884,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -1896,7 +1897,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -1909,7 +1910,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -1927,6 +1928,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -1941,205 +1954,205 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>

--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>ruit-quince-1.jpg</t>
+  </si>
+  <si>
+    <t>dragon-fruit</t>
   </si>
   <si>
     <t>fruits</t>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -818,7 +821,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="str">
         <f>PROPER(A2)</f>
@@ -831,7 +834,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">PROPER(A3)</f>
@@ -844,7 +847,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -857,7 +860,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -870,7 +873,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -883,7 +886,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -896,10 +899,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -908,10 +911,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
@@ -920,7 +923,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -933,7 +936,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -946,10 +949,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -958,10 +961,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -979,7 +982,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,10 +994,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B29" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="str">
         <f>LOWER(SUBSTITUTE(A4, " ", ""))</f>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1054,7 +1057,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1067,7 +1070,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1080,7 +1083,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1106,20 +1109,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>dragonfruit</v>
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Dragon Fruit", "word":"Dragon Fruit", "imgUrls": ["fruit-dragonfruit-1.jpg?raw=true", "fruit-dragonfruit-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Dragon Fruit", "word":"Dragon Fruit", "imgUrls": ["fruit-dragon-fruit-1.jpg?raw=true", "fruit-dragon-fruit-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1132,7 +1134,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1145,7 +1147,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1158,7 +1160,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1171,7 +1173,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1184,7 +1186,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1197,7 +1199,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1210,7 +1212,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1223,7 +1225,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1236,7 +1238,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1249,7 +1251,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1262,7 +1264,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1275,7 +1277,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1288,7 +1290,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1301,7 +1303,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1327,7 +1329,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1340,7 +1342,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1353,7 +1355,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -1392,10 +1394,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1403,7 +1405,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
@@ -1416,7 +1418,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B41" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
@@ -1429,7 +1431,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -1442,7 +1444,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1455,7 +1457,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1468,7 +1470,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1481,7 +1483,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1494,7 +1496,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1507,7 +1509,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1520,7 +1522,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1533,7 +1535,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1546,7 +1548,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1559,7 +1561,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1572,7 +1574,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1585,7 +1587,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1598,7 +1600,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1611,7 +1613,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1624,7 +1626,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1637,7 +1639,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1650,7 +1652,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1676,7 +1678,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1689,7 +1691,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1704,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1715,7 +1717,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1730,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1741,7 +1743,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -1767,7 +1769,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -1780,7 +1782,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -1793,7 +1795,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1808,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -1819,7 +1821,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -1832,7 +1834,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -1845,7 +1847,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -1858,7 +1860,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1871,7 +1873,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1884,7 +1886,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1899,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -1910,7 +1912,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -1954,205 +1956,205 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MainData" sheetId="3" r:id="rId1"/>
     <sheet name="Fruits" sheetId="1" r:id="rId2"/>
-    <sheet name="Vegetables" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="Calculate" sheetId="2" r:id="rId6"/>
+    <sheet name="Birds" sheetId="11" r:id="rId3"/>
+    <sheet name="Vegetables" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Calculate" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Birds!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fruits!$A$1:$C$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vegetables!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vegetables!$A$1:$B$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="274">
   <si>
     <t>Name</t>
   </si>
@@ -41,174 +44,15 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>fruit-blackberry-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-blackberry-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-blueberry-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-blueberry-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-cherry-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-cherry-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-coconut-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-coconut-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-custardapple-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-custardapple-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-dragon-fruit-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-dragon-fruit-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-fig-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-fig-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-grapefruit-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-grapefruit-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-grapefruit-3.jpg</t>
-  </si>
-  <si>
-    <t>fruit-grapes-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-grapes-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-grapes-3.jpg</t>
-  </si>
-  <si>
-    <t>fruit-guava-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-guava-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-jackfruit-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-jackfruit-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-kiwi-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-kiwi-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-lemon-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-lemon-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-lemon-3.jpg</t>
-  </si>
-  <si>
-    <t>fruit-mango-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-mango-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-mango-3.jpg</t>
-  </si>
-  <si>
-    <t>fruit-orange-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-orange-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-papaya-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-papaya-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-peach-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-peach-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-pear-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-pear-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-pineapple-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-pineapple-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-plum-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-plum-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-pomegranate-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-pomegranate-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-quince-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-strawberrie-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-strawberrie-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-tamarind-1.jpg</t>
-  </si>
-  <si>
-    <t>fruit-tamarind-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-waterlemon-2.jpg</t>
-  </si>
-  <si>
-    <t>fruit-watermelon-1.jpg</t>
-  </si>
-  <si>
-    <t>hass-avocados-5537945_1280.jpg</t>
-  </si>
-  <si>
-    <t>ruit-quince-1.jpg</t>
-  </si>
-  <si>
     <t>dragon-fruit</t>
   </si>
   <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
     <t>fruits</t>
   </si>
   <si>
@@ -471,6 +315,549 @@
   </si>
   <si>
     <t>Avocado</t>
+  </si>
+  <si>
+    <t>bird-cock-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-cock-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-crane-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-crane-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-crane-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-crow-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-crow-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-crow-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-dove-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-dove-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-flamigo-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-flamingo-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-flamingo-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-hen-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-hen-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-hen-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-hornbill-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-hornbill-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-hornbill-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-humming-bird-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-humming-bird-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-kingfisher-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-kingfisher-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-kingfisher-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-kite-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-kite-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-kite-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-kiwi-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-kiwi-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-nightingale-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-nightingale-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-nightingale-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-ostrich-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-ostrich-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-ostrich-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-pelican-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-pelican-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-pelican-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-penguin-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-penguin-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-penguin-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-pigeon-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-pigeon-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-pigeon-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-robin-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-robin-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-robin-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-seagull-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-seagull-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-seagull-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-swan-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-swan-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-swan-3.jpg</t>
+  </si>
+  <si>
+    <t>bird-turkey-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-turkey-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-vulture-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-vulture-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-woodpecker-1.jpg</t>
+  </si>
+  <si>
+    <t>bird-woodpecker-2.jpg</t>
+  </si>
+  <si>
+    <t>bird-woodpecker-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-artichoke-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-artichoke-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-artichoke-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-asparagus-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-beetroot-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-beetroot-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-bottle-gourd-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-broccoli-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-broccoli-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-brumstick-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cabbage-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cabbage-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-carrot-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-carrot-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-carrot-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cauliflower -1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cauliflower -2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-celery-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-celery-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-chilli-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-coriander-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-coriander-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-corn-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-corn-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-corn-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cucumber-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cucumber-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-cucumber-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-drumstick-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-eggplant-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-eggplant-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-eggplant-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-garlic-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-garlic-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-ginger-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-lady-finger-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-lady-finger-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-lattuce-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-leek-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-leek-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-lemon-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-lemon-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-lettuce-2.png</t>
+  </si>
+  <si>
+    <t>vegetables-mint-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-mushroom-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-mushroom-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-onion-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-onion-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-peas-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-peas-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-potato-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-potato-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-pumpkin-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-pumpkin-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-pumpkin-3.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-red-chilli-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-tomato-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-tomato-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-turnip-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-turnip-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetbles-asparagus-1.jpg</t>
+  </si>
+  <si>
+    <t>vegetbles-ginger-2.jpg</t>
+  </si>
+  <si>
+    <t>cock</t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>crow</t>
+  </si>
+  <si>
+    <t>dove</t>
+  </si>
+  <si>
+    <t>flamigo</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>hornbill</t>
+  </si>
+  <si>
+    <t>humming-bird</t>
+  </si>
+  <si>
+    <t>kingfisher</t>
+  </si>
+  <si>
+    <t>kite</t>
+  </si>
+  <si>
+    <t>nightingale</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>pelican</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>pigeon</t>
+  </si>
+  <si>
+    <t>robin</t>
+  </si>
+  <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>vulture</t>
+  </si>
+  <si>
+    <t>woodpecker</t>
+  </si>
+  <si>
+    <t>artichoke</t>
+  </si>
+  <si>
+    <t>asparagus</t>
+  </si>
+  <si>
+    <t>beetroot</t>
+  </si>
+  <si>
+    <t>bottle-gourd</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>brumstick</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cauliflower </t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>chilli</t>
+  </si>
+  <si>
+    <t>coriander</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>drumstick</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>lady-finger</t>
+  </si>
+  <si>
+    <t>lattuce</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>mint</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>red-chilli</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>turnip</t>
+  </si>
+  <si>
+    <t>bitter-gourd</t>
+  </si>
+  <si>
+    <t>vegetables-bitter-gourd-2.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-pointed-gourd -1.jpg</t>
+  </si>
+  <si>
+    <t>vegetables-pointed-gourd-2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pointed-gourd </t>
+  </si>
+  <si>
+    <t>pointed-gourd</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -821,7 +1208,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B2" t="str">
         <f>PROPER(A2)</f>
@@ -834,7 +1221,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">PROPER(A3)</f>
@@ -847,7 +1234,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -860,7 +1247,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -873,7 +1260,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -886,7 +1273,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -899,10 +1286,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -911,10 +1298,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
@@ -923,7 +1310,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -936,7 +1323,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -949,10 +1336,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -961,10 +1348,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -981,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,10 +1381,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1005,7 +1392,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
@@ -1018,7 +1405,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B29" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
@@ -1031,7 +1418,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B4" t="str">
         <f>LOWER(SUBSTITUTE(A4, " ", ""))</f>
@@ -1044,7 +1431,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1057,7 +1444,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1070,7 +1457,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1083,7 +1470,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1096,7 +1483,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1109,10 +1496,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
@@ -1121,7 +1508,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1134,7 +1521,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1147,7 +1534,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1160,7 +1547,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1173,7 +1560,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1186,7 +1573,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1199,7 +1586,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1212,7 +1599,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1225,7 +1612,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1238,7 +1625,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1251,7 +1638,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1264,7 +1651,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1277,7 +1664,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1290,7 +1677,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1303,7 +1690,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1316,7 +1703,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1329,7 +1716,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1342,7 +1729,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1355,7 +1742,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -1379,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,10 +1781,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1405,522 +1792,301 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="B2" t="str">
-        <f>LOWER(SUBSTITUTE(A2, " ", ""))</f>
-        <v>ashgourd</v>
+        <f>PROPER(SUBSTITUTE(A2, "-", " "))</f>
+        <v>Cock</v>
       </c>
       <c r="C2" t="str">
-        <f>"{""label"":"""&amp;A2&amp;""", ""word"":"""&amp;A2&amp;""", ""imgUrls"": [""fruit-"&amp;B2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;B2&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"Ash gourd", "word":"Ash gourd", "imgUrls": ["fruit-ashgourd-1.jpg?raw=true", "fruit-ashgourd-2.jpg?raw=true"]}, </v>
+        <f>"{""label"":"""&amp;B2&amp;""", ""word"":"""&amp;B2&amp;""", ""imgUrls"": [""fruit-"&amp;A2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A2&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Cock", "word":"Cock", "imgUrls": ["fruit-cock-1.jpg?raw=true", "fruit-cock-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B41" si="0">LOWER(SUBSTITUTE(A3, " ", ""))</f>
-        <v>bittergourd</v>
+        <f t="shared" ref="B3:B24" si="0">PROPER(SUBSTITUTE(A3, "-", " "))</f>
+        <v>Crane</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C41" si="1">"{""label"":"""&amp;A3&amp;""", ""word"":"""&amp;A3&amp;""", ""imgUrls"": [""fruit-"&amp;B3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;B3&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"Bitter gourd", "word":"Bitter gourd", "imgUrls": ["fruit-bittergourd-1.jpg?raw=true", "fruit-bittergourd-2.jpg?raw=true"]}, </v>
+        <f t="shared" ref="C3:C24" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""fruit-"&amp;A3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Crane", "word":"Crane", "imgUrls": ["fruit-crane-1.jpg?raw=true", "fruit-crane-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>potato</v>
+        <v>Crow</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["fruit-potato-1.jpg?raw=true", "fruit-potato-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Crow", "word":"Crow", "imgUrls": ["fruit-crow-1.jpg?raw=true", "fruit-crow-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>clusterbeans</v>
+        <v>Dove</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cluster beans", "word":"Cluster beans", "imgUrls": ["fruit-clusterbeans-1.jpg?raw=true", "fruit-clusterbeans-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Dove", "word":"Dove", "imgUrls": ["fruit-dove-1.jpg?raw=true", "fruit-dove-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>onion</v>
+        <v>Flamigo</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Onion", "word":"Onion", "imgUrls": ["fruit-onion-1.jpg?raw=true", "fruit-onion-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Flamigo", "word":"Flamigo", "imgUrls": ["fruit-flamigo-1.jpg?raw=true", "fruit-flamigo-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>garlic</v>
+        <v>Flamingo</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Garlic", "word":"Garlic", "imgUrls": ["fruit-garlic-1.jpg?raw=true", "fruit-garlic-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Flamingo", "word":"Flamingo", "imgUrls": ["fruit-flamingo-1.jpg?raw=true", "fruit-flamingo-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>lady’sfinger</v>
+        <v>Hen</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Lady’s finger", "word":"Lady’s finger", "imgUrls": ["fruit-lady’sfinger-1.jpg?raw=true", "fruit-lady’sfinger-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Hen", "word":"Hen", "imgUrls": ["fruit-hen-1.jpg?raw=true", "fruit-hen-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>beans</v>
+        <v>Hornbill</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Beans", "word":"Beans", "imgUrls": ["fruit-beans-1.jpg?raw=true", "fruit-beans-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Hornbill", "word":"Hornbill", "imgUrls": ["fruit-hornbill-1.jpg?raw=true", "fruit-hornbill-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>pumpkin</v>
+        <v>Humming Bird</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["fruit-pumpkin-1.jpg?raw=true", "fruit-pumpkin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Humming Bird", "word":"Humming Bird", "imgUrls": ["fruit-humming-bird-1.jpg?raw=true", "fruit-humming-bird-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>whitepumpkin</v>
+        <v>Kingfisher</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"White pumpkin", "word":"White pumpkin", "imgUrls": ["fruit-whitepumpkin-1.jpg?raw=true", "fruit-whitepumpkin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kingfisher", "word":"Kingfisher", "imgUrls": ["fruit-kingfisher-1.jpg?raw=true", "fruit-kingfisher-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>broccoli</v>
+        <v>Kite</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Broccoli", "word":"Broccoli", "imgUrls": ["fruit-broccoli-1.jpg?raw=true", "fruit-broccoli-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kite", "word":"Kite", "imgUrls": ["fruit-kite-1.jpg?raw=true", "fruit-kite-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>elephantyam</v>
+        <v>Kiwi</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Elephant yam", "word":"Elephant yam", "imgUrls": ["fruit-elephantyam-1.jpg?raw=true", "fruit-elephantyam-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kiwi", "word":"Kiwi", "imgUrls": ["fruit-kiwi-1.jpg?raw=true", "fruit-kiwi-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>capsicum</v>
+        <v>Nightingale</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Capsicum", "word":"Capsicum", "imgUrls": ["fruit-capsicum-1.jpg?raw=true", "fruit-capsicum-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Nightingale", "word":"Nightingale", "imgUrls": ["fruit-nightingale-1.jpg?raw=true", "fruit-nightingale-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>greenpeas</v>
+        <v>Ostrich</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Green peas", "word":"Green peas", "imgUrls": ["fruit-greenpeas-1.jpg?raw=true", "fruit-greenpeas-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Ostrich", "word":"Ostrich", "imgUrls": ["fruit-ostrich-1.jpg?raw=true", "fruit-ostrich-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>cauliflower</v>
+        <v>Pelican</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cauliflower", "word":"Cauliflower", "imgUrls": ["fruit-cauliflower-1.jpg?raw=true", "fruit-cauliflower-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pelican", "word":"Pelican", "imgUrls": ["fruit-pelican-1.jpg?raw=true", "fruit-pelican-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>cabbage</v>
+        <v>Penguin</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cabbage", "word":"Cabbage", "imgUrls": ["fruit-cabbage-1.jpg?raw=true", "fruit-cabbage-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Penguin", "word":"Penguin", "imgUrls": ["fruit-penguin-1.jpg?raw=true", "fruit-penguin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>snakegourd</v>
+        <v>Pigeon</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Snake gourd", "word":"Snake gourd", "imgUrls": ["fruit-snakegourd-1.jpg?raw=true", "fruit-snakegourd-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pigeon", "word":"Pigeon", "imgUrls": ["fruit-pigeon-1.jpg?raw=true", "fruit-pigeon-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>lablab</v>
+        <v>Robin</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Lab lab", "word":"Lab lab", "imgUrls": ["fruit-lablab-1.jpg?raw=true", "fruit-lablab-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Robin", "word":"Robin", "imgUrls": ["fruit-robin-1.jpg?raw=true", "fruit-robin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>bottlegourd</v>
+        <v>Seagull</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Bottle gourd", "word":"Bottle gourd", "imgUrls": ["fruit-bottlegourd-1.jpg?raw=true", "fruit-bottlegourd-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Seagull", "word":"Seagull", "imgUrls": ["fruit-seagull-1.jpg?raw=true", "fruit-seagull-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>radish</v>
+        <v>Swan</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Radish", "word":"Radish", "imgUrls": ["fruit-radish-1.jpg?raw=true", "fruit-radish-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Swan", "word":"Swan", "imgUrls": ["fruit-swan-1.jpg?raw=true", "fruit-swan-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>cucumber</v>
+        <v>Turkey</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cucumber", "word":"Cucumber", "imgUrls": ["fruit-cucumber-1.jpg?raw=true", "fruit-cucumber-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Turkey", "word":"Turkey", "imgUrls": ["fruit-turkey-1.jpg?raw=true", "fruit-turkey-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>carrot</v>
+        <v>Vulture</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Carrot", "word":"Carrot", "imgUrls": ["fruit-carrot-1.jpg?raw=true", "fruit-carrot-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Vulture", "word":"Vulture", "imgUrls": ["fruit-vulture-1.jpg?raw=true", "fruit-vulture-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>turnip</v>
+        <v>Woodpecker</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Turnip", "word":"Turnip", "imgUrls": ["fruit-turnip-1.jpg?raw=true", "fruit-turnip-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>ginger</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Ginger", "word":"Ginger", "imgUrls": ["fruit-ginger-1.jpg?raw=true", "fruit-ginger-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>beetroot</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Beetroot", "word":"Beetroot", "imgUrls": ["fruit-beetroot-1.jpg?raw=true", "fruit-beetroot-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>chowchow</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Chow chow", "word":"Chow chow", "imgUrls": ["fruit-chowchow-1.jpg?raw=true", "fruit-chowchow-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>ivygourd/scarletgourd</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Ivy gourd/Scarlet gourd", "word":"Ivy gourd/Scarlet gourd", "imgUrls": ["fruit-ivygourd/scarletgourd-1.jpg?raw=true", "fruit-ivygourd/scarletgourd-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>greenpapaya</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Green papaya", "word":"Green papaya", "imgUrls": ["fruit-greenpapaya-1.jpg?raw=true", "fruit-greenpapaya-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>snakebeans/yardlongbeans</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Snake beans/Yard long beans", "word":"Snake beans/Yard long beans", "imgUrls": ["fruit-snakebeans/yardlongbeans-1.jpg?raw=true", "fruit-snakebeans/yardlongbeans-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>fieldbeans/broadbeans</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Field beans/Broad beans", "word":"Field beans/Broad beans", "imgUrls": ["fruit-fieldbeans/broadbeans-1.jpg?raw=true", "fruit-fieldbeans/broadbeans-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>celery</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Celery", "word":"Celery", "imgUrls": ["fruit-celery-1.jpg?raw=true", "fruit-celery-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>springonion</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Spring onion", "word":"Spring onion", "imgUrls": ["fruit-springonion-1.jpg?raw=true", "fruit-springonion-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>brinjal</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Brinjal", "word":"Brinjal", "imgUrls": ["fruit-brinjal-1.jpg?raw=true", "fruit-brinjal-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>applegourd</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Apple gourd", "word":"Apple gourd", "imgUrls": ["fruit-applegourd-1.jpg?raw=true", "fruit-applegourd-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>ridgegourd</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Ridge gourd", "word":"Ridge gourd", "imgUrls": ["fruit-ridgegourd-1.jpg?raw=true", "fruit-ridgegourd-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>mushroom</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Mushroom", "word":"Mushroom", "imgUrls": ["fruit-mushroom-1.jpg?raw=true", "fruit-mushroom-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>spinach</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Spinach", "word":"Spinach", "imgUrls": ["fruit-spinach-1.jpg?raw=true", "fruit-spinach-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>corn</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Corn", "word":"Corn", "imgUrls": ["fruit-corn-1.jpg?raw=true", "fruit-corn-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>drumstick</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["fruit-drumstick-1.jpg?raw=true", "fruit-drumstick-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>zucchini</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Zucchini", "word":"Zucchini", "imgUrls": ["fruit-zucchini-1.jpg?raw=true", "fruit-zucchini-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Woodpecker", "word":"Woodpecker", "imgUrls": ["fruit-woodpecker-1.jpg?raw=true", "fruit-woodpecker-2.jpg?raw=true"]}, </v>
       </c>
     </row>
   </sheetData>
@@ -1931,21 +2097,1112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="str">
+        <f>PROPER(SUBSTITUTE(A2, "-", " "))</f>
+        <v>Artichoke</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"{""label"":"""&amp;B2&amp;""", ""word"":"""&amp;B2&amp;""", ""imgUrls"": [""fruit-"&amp;A2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A2&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Artichoke", "word":"Artichoke", "imgUrls": ["fruit-artichoke-1.jpg?raw=true", "fruit-artichoke-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B36" si="0">PROPER(SUBSTITUTE(A3, "-", " "))</f>
+        <v>Asparagus</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C36" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""fruit-"&amp;A3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Asparagus", "word":"Asparagus", "imgUrls": ["fruit-asparagus-1.jpg?raw=true", "fruit-asparagus-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Beetroot</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Beetroot", "word":"Beetroot", "imgUrls": ["fruit-beetroot-1.jpg?raw=true", "fruit-beetroot-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bitter Gourd</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Bitter Gourd", "word":"Bitter Gourd", "imgUrls": ["fruit-bitter-gourd-1.jpg?raw=true", "fruit-bitter-gourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bottle Gourd</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Bottle Gourd", "word":"Bottle Gourd", "imgUrls": ["fruit-bottle-gourd-1.jpg?raw=true", "fruit-bottle-gourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Broccoli</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Broccoli", "word":"Broccoli", "imgUrls": ["fruit-broccoli-1.jpg?raw=true", "fruit-broccoli-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Drumstick</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["fruit-drumstick-1.jpg?raw=true", "fruit-drumstick-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cabbage</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cabbage", "word":"Cabbage", "imgUrls": ["fruit-cabbage-1.jpg?raw=true", "fruit-cabbage-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Carrot</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Carrot", "word":"Carrot", "imgUrls": ["fruit-carrot-1.jpg?raw=true", "fruit-carrot-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Cauliflower </v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cauliflower ", "word":"Cauliflower ", "imgUrls": ["fruit-cauliflower -1.jpg?raw=true", "fruit-cauliflower -2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Celery</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Celery", "word":"Celery", "imgUrls": ["fruit-celery-1.jpg?raw=true", "fruit-celery-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Chilli</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Chilli", "word":"Chilli", "imgUrls": ["fruit-chilli-1.jpg?raw=true", "fruit-chilli-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Coriander</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Coriander", "word":"Coriander", "imgUrls": ["fruit-coriander-1.jpg?raw=true", "fruit-coriander-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Corn</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Corn", "word":"Corn", "imgUrls": ["fruit-corn-1.jpg?raw=true", "fruit-corn-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Cucumber</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Cucumber", "word":"Cucumber", "imgUrls": ["fruit-cucumber-1.jpg?raw=true", "fruit-cucumber-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Drumstick</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["fruit-drumstick-1.jpg?raw=true", "fruit-drumstick-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Eggplant</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Eggplant", "word":"Eggplant", "imgUrls": ["fruit-eggplant-1.jpg?raw=true", "fruit-eggplant-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Garlic</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Garlic", "word":"Garlic", "imgUrls": ["fruit-garlic-1.jpg?raw=true", "fruit-garlic-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ginger</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Ginger", "word":"Ginger", "imgUrls": ["fruit-ginger-1.jpg?raw=true", "fruit-ginger-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lady Finger</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lady Finger", "word":"Lady Finger", "imgUrls": ["fruit-lady-finger-1.jpg?raw=true", "fruit-lady-finger-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Lattuce</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lattuce", "word":"Lattuce", "imgUrls": ["fruit-lattuce-1.jpg?raw=true", "fruit-lattuce-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Leek</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Leek", "word":"Leek", "imgUrls": ["fruit-leek-1.jpg?raw=true", "fruit-leek-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Lemon</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lemon", "word":"Lemon", "imgUrls": ["fruit-lemon-1.jpg?raw=true", "fruit-lemon-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Lettuce</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Lettuce", "word":"Lettuce", "imgUrls": ["fruit-lettuce-1.jpg?raw=true", "fruit-lettuce-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Mint</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Mint", "word":"Mint", "imgUrls": ["fruit-mint-1.jpg?raw=true", "fruit-mint-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Mushroom</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Mushroom", "word":"Mushroom", "imgUrls": ["fruit-mushroom-1.jpg?raw=true", "fruit-mushroom-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Onion</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Onion", "word":"Onion", "imgUrls": ["fruit-onion-1.jpg?raw=true", "fruit-onion-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Peas</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Peas", "word":"Peas", "imgUrls": ["fruit-peas-1.jpg?raw=true", "fruit-peas-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Pointed Gourd </v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pointed Gourd ", "word":"Pointed Gourd ", "imgUrls": ["fruit-pointed-gourd -1.jpg?raw=true", "fruit-pointed-gourd -2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Pointed Gourd</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pointed Gourd", "word":"Pointed Gourd", "imgUrls": ["fruit-pointed-gourd-1.jpg?raw=true", "fruit-pointed-gourd-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Potato</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["fruit-potato-1.jpg?raw=true", "fruit-potato-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pumpkin</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["fruit-pumpkin-1.jpg?raw=true", "fruit-pumpkin-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Red Chilli</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Red Chilli", "word":"Red Chilli", "imgUrls": ["fruit-red-chilli-1.jpg?raw=true", "fruit-red-chilli-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Tomato</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Tomato", "word":"Tomato", "imgUrls": ["fruit-tomato-1.jpg?raw=true", "fruit-tomato-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Turnip</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{"label":"Turnip", "word":"Turnip", "imgUrls": ["fruit-turnip-1.jpg?raw=true", "fruit-turnip-2.jpg?raw=true"]}, </v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A40" sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
@@ -1956,205 +3213,205 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2162,12 +3419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,497 +3436,1127 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>MID(A1, FIND( "-", A1) + 1, FIND( ".", A1)-9)</f>
-        <v>blackberry</v>
+        <f>MID(A1, FIND( "-", A1) + 1, (LEN(A1) - FIND( "-", A1)-2 -4))</f>
+        <v>cock</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>MID(A2, FIND( "-", A2) + 1, FIND( ".", A2)-9)</f>
-        <v>blackberry</v>
+        <f t="shared" ref="B2:B65" si="0">MID(A2, FIND( "-", A2) + 1, (LEN(A2) - FIND( "-", A2)-2 -4))</f>
+        <v>cock</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B55" si="0">MID(A3, FIND( "-", A3) + 1, FIND( ".", A3)-9)</f>
-        <v>blueberry</v>
+        <f t="shared" si="0"/>
+        <v>crane</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>blueberry</v>
+        <v>crane</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>cherry</v>
+        <v>crane</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>cherry</v>
+        <v>crow</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>coconut</v>
+        <v>crow</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>coconut</v>
+        <v>crow</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>custardapple</v>
+        <v>dove</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>custardapple</v>
+        <v>dove</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>dragon-fruit</v>
+        <v>flamigo</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>dragon-fruit</v>
+        <v>flamingo</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fig</v>
+        <v>flamingo</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fig</v>
+        <v>hen</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>grapefruit</v>
+        <v>hen</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>grapefruit</v>
+        <v>hen</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>grapefruit</v>
+        <v>hornbill</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>grapes</v>
+        <v>hornbill</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>grapes</v>
+        <v>hornbill</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>grapes</v>
+        <v>humming-bird</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>guava</v>
+        <v>humming-bird</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>guava</v>
+        <v>kingfisher</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>jackfruit</v>
+        <v>kingfisher</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>jackfruit</v>
+        <v>kingfisher</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>kiwi</v>
+        <v>kite</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>kiwi</v>
+        <v>kite</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lemon</v>
+        <v>kite</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lemon</v>
+        <v>kiwi</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lemon</v>
+        <v>kiwi</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>mango</v>
+        <v>nightingale</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>mango</v>
+        <v>nightingale</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>mango</v>
+        <v>nightingale</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>orange</v>
+        <v>ostrich</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>orange</v>
+        <v>ostrich</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>papaya</v>
+        <v>ostrich</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>papaya</v>
+        <v>pelican</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>peach</v>
+        <v>pelican</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>peach</v>
+        <v>pelican</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pear</v>
+        <v>penguin</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pear</v>
+        <v>penguin</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pineapple</v>
+        <v>penguin</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pineapple</v>
+        <v>pigeon</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>plum</v>
+        <v>pigeon</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>plum</v>
+        <v>pigeon</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pomegranate</v>
+        <v>robin</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pomegranate</v>
+        <v>robin</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>quince</v>
+        <v>robin</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>strawberrie</v>
+        <v>seagull</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>strawberrie</v>
+        <v>seagull</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>tamarind</v>
+        <v>seagull</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>tamarind</v>
+        <v>swan</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>waterlemon</v>
+        <v>swan</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>watermelon</v>
+        <v>swan</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>avocados-5537945_1</v>
+        <v>turkey</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>quinc</v>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>vulture</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>vulture</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>woodpecker</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>woodpecker</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>woodpecker</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>artichoke</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>artichoke</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>artichoke</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>asparagus</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>beetroot</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" ref="B66:B125" si="1">MID(A66, FIND( "-", A66) + 1, (LEN(A66) - FIND( "-", A66)-2 -4))</f>
+        <v>beetroot</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bitter-gourd</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bottle-gourd</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>broccoli</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>broccoli</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>brumstick</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cabbage</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cabbage</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>carrot</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>carrot</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>carrot</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">cauliflower </v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">cauliflower </v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>celery</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>celery</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>chilli</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coriander</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coriander</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>corn</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>corn</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>corn</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cucumber</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cucumber</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cucumber</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>drumstick</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>eggplant</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>eggplant</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>eggplant</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>garlic</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>garlic</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ginger</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lady-finger</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lady-finger</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lattuce</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>leek</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>leek</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lemon</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lemon</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lettuce</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>mint</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>mushroom</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>mushroom</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>onion</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>onion</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>peas</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>peas</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">pointed-gourd </v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pointed-gourd</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>potato</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>potato</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pumpkin</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pumpkin</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pumpkin</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>red-chilli</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>tomato</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>tomato</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>turnip</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>turnip</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>asparagus</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>214</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ginger</v>
       </c>
     </row>
   </sheetData>

--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>pointed-gourd</t>
+  </si>
+  <si>
+    <t>cauli-flower</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1802,8 @@
         <v>Cock</v>
       </c>
       <c r="C2" t="str">
-        <f>"{""label"":"""&amp;B2&amp;""", ""word"":"""&amp;B2&amp;""", ""imgUrls"": [""fruit-"&amp;A2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A2&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"Cock", "word":"Cock", "imgUrls": ["fruit-cock-1.jpg?raw=true", "fruit-cock-2.jpg?raw=true"]}, </v>
+        <f>"{""label"":"""&amp;B2&amp;""", ""word"":"""&amp;B2&amp;""", ""imgUrls"": [""bird-"&amp;A2&amp;"-1.jpg?raw=true"", ""bird-"&amp;A2&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Cock", "word":"Cock", "imgUrls": ["bird-cock-1.jpg?raw=true", "bird-cock-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1812,8 +1815,8 @@
         <v>Crane</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C24" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""fruit-"&amp;A3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"Crane", "word":"Crane", "imgUrls": ["fruit-crane-1.jpg?raw=true", "fruit-crane-2.jpg?raw=true"]}, </v>
+        <f t="shared" ref="C3:C24" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""bird-"&amp;A3&amp;"-1.jpg?raw=true"", ""bird-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Crane", "word":"Crane", "imgUrls": ["bird-crane-1.jpg?raw=true", "bird-crane-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,7 +1829,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Crow", "word":"Crow", "imgUrls": ["fruit-crow-1.jpg?raw=true", "fruit-crow-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Crow", "word":"Crow", "imgUrls": ["bird-crow-1.jpg?raw=true", "bird-crow-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1839,7 +1842,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Dove", "word":"Dove", "imgUrls": ["fruit-dove-1.jpg?raw=true", "fruit-dove-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Dove", "word":"Dove", "imgUrls": ["bird-dove-1.jpg?raw=true", "bird-dove-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1852,7 +1855,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Flamigo", "word":"Flamigo", "imgUrls": ["fruit-flamigo-1.jpg?raw=true", "fruit-flamigo-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Flamigo", "word":"Flamigo", "imgUrls": ["bird-flamigo-1.jpg?raw=true", "bird-flamigo-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,7 +1868,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Flamingo", "word":"Flamingo", "imgUrls": ["fruit-flamingo-1.jpg?raw=true", "fruit-flamingo-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Flamingo", "word":"Flamingo", "imgUrls": ["bird-flamingo-1.jpg?raw=true", "bird-flamingo-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1878,7 +1881,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Hen", "word":"Hen", "imgUrls": ["fruit-hen-1.jpg?raw=true", "fruit-hen-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Hen", "word":"Hen", "imgUrls": ["bird-hen-1.jpg?raw=true", "bird-hen-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1891,7 +1894,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Hornbill", "word":"Hornbill", "imgUrls": ["fruit-hornbill-1.jpg?raw=true", "fruit-hornbill-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Hornbill", "word":"Hornbill", "imgUrls": ["bird-hornbill-1.jpg?raw=true", "bird-hornbill-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1904,7 +1907,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Humming Bird", "word":"Humming Bird", "imgUrls": ["fruit-humming-bird-1.jpg?raw=true", "fruit-humming-bird-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Humming Bird", "word":"Humming Bird", "imgUrls": ["bird-humming-bird-1.jpg?raw=true", "bird-humming-bird-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,7 +1920,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Kingfisher", "word":"Kingfisher", "imgUrls": ["fruit-kingfisher-1.jpg?raw=true", "fruit-kingfisher-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kingfisher", "word":"Kingfisher", "imgUrls": ["bird-kingfisher-1.jpg?raw=true", "bird-kingfisher-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1930,7 +1933,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Kite", "word":"Kite", "imgUrls": ["fruit-kite-1.jpg?raw=true", "fruit-kite-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kite", "word":"Kite", "imgUrls": ["bird-kite-1.jpg?raw=true", "bird-kite-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1943,7 +1946,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Kiwi", "word":"Kiwi", "imgUrls": ["fruit-kiwi-1.jpg?raw=true", "fruit-kiwi-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kiwi", "word":"Kiwi", "imgUrls": ["bird-kiwi-1.jpg?raw=true", "bird-kiwi-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1956,7 +1959,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Nightingale", "word":"Nightingale", "imgUrls": ["fruit-nightingale-1.jpg?raw=true", "fruit-nightingale-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Nightingale", "word":"Nightingale", "imgUrls": ["bird-nightingale-1.jpg?raw=true", "bird-nightingale-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,7 +1972,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Ostrich", "word":"Ostrich", "imgUrls": ["fruit-ostrich-1.jpg?raw=true", "fruit-ostrich-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Ostrich", "word":"Ostrich", "imgUrls": ["bird-ostrich-1.jpg?raw=true", "bird-ostrich-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1982,7 +1985,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pelican", "word":"Pelican", "imgUrls": ["fruit-pelican-1.jpg?raw=true", "fruit-pelican-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pelican", "word":"Pelican", "imgUrls": ["bird-pelican-1.jpg?raw=true", "bird-pelican-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1995,7 +1998,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Penguin", "word":"Penguin", "imgUrls": ["fruit-penguin-1.jpg?raw=true", "fruit-penguin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Penguin", "word":"Penguin", "imgUrls": ["bird-penguin-1.jpg?raw=true", "bird-penguin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2008,7 +2011,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pigeon", "word":"Pigeon", "imgUrls": ["fruit-pigeon-1.jpg?raw=true", "fruit-pigeon-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pigeon", "word":"Pigeon", "imgUrls": ["bird-pigeon-1.jpg?raw=true", "bird-pigeon-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2021,7 +2024,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Robin", "word":"Robin", "imgUrls": ["fruit-robin-1.jpg?raw=true", "fruit-robin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Robin", "word":"Robin", "imgUrls": ["bird-robin-1.jpg?raw=true", "bird-robin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2034,7 +2037,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Seagull", "word":"Seagull", "imgUrls": ["fruit-seagull-1.jpg?raw=true", "fruit-seagull-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Seagull", "word":"Seagull", "imgUrls": ["bird-seagull-1.jpg?raw=true", "bird-seagull-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2047,7 +2050,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Swan", "word":"Swan", "imgUrls": ["fruit-swan-1.jpg?raw=true", "fruit-swan-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Swan", "word":"Swan", "imgUrls": ["bird-swan-1.jpg?raw=true", "bird-swan-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2060,7 +2063,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Turkey", "word":"Turkey", "imgUrls": ["fruit-turkey-1.jpg?raw=true", "fruit-turkey-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Turkey", "word":"Turkey", "imgUrls": ["bird-turkey-1.jpg?raw=true", "bird-turkey-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2073,7 +2076,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Vulture", "word":"Vulture", "imgUrls": ["fruit-vulture-1.jpg?raw=true", "fruit-vulture-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Vulture", "word":"Vulture", "imgUrls": ["bird-vulture-1.jpg?raw=true", "bird-vulture-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,7 +2089,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Woodpecker", "word":"Woodpecker", "imgUrls": ["fruit-woodpecker-1.jpg?raw=true", "fruit-woodpecker-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Woodpecker", "word":"Woodpecker", "imgUrls": ["bird-woodpecker-1.jpg?raw=true", "bird-woodpecker-2.jpg?raw=true"]}, </v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2103,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,8 +2133,8 @@
         <v>Artichoke</v>
       </c>
       <c r="C2" t="str">
-        <f>"{""label"":"""&amp;B2&amp;""", ""word"":"""&amp;B2&amp;""", ""imgUrls"": [""fruit-"&amp;A2&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A2&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"Artichoke", "word":"Artichoke", "imgUrls": ["fruit-artichoke-1.jpg?raw=true", "fruit-artichoke-2.jpg?raw=true"]}, </v>
+        <f>"{""label"":"""&amp;B2&amp;""", ""word"":"""&amp;B2&amp;""", ""imgUrls"": [""vegetables-"&amp;A2&amp;"-1.jpg?raw=true"", ""vegetables-"&amp;A2&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Artichoke", "word":"Artichoke", "imgUrls": ["vegetables-artichoke-1.jpg?raw=true", "vegetables-artichoke-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2143,8 +2146,8 @@
         <v>Asparagus</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C36" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""fruit-"&amp;A3&amp;"-1.jpg?raw=true"", ""fruit-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
-        <v xml:space="preserve">{"label":"Asparagus", "word":"Asparagus", "imgUrls": ["fruit-asparagus-1.jpg?raw=true", "fruit-asparagus-2.jpg?raw=true"]}, </v>
+        <f t="shared" ref="C3:C36" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""vegetables-"&amp;A3&amp;"-1.jpg?raw=true"", ""vegetables-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
+        <v xml:space="preserve">{"label":"Asparagus", "word":"Asparagus", "imgUrls": ["vegetables-asparagus-1.jpg?raw=true", "vegetables-asparagus-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2157,7 +2160,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Beetroot", "word":"Beetroot", "imgUrls": ["fruit-beetroot-1.jpg?raw=true", "fruit-beetroot-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Beetroot", "word":"Beetroot", "imgUrls": ["vegetables-beetroot-1.jpg?raw=true", "vegetables-beetroot-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2170,7 +2173,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Bitter Gourd", "word":"Bitter Gourd", "imgUrls": ["fruit-bitter-gourd-1.jpg?raw=true", "fruit-bitter-gourd-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Bitter Gourd", "word":"Bitter Gourd", "imgUrls": ["vegetables-bitter-gourd-1.jpg?raw=true", "vegetables-bitter-gourd-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2183,7 +2186,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Bottle Gourd", "word":"Bottle Gourd", "imgUrls": ["fruit-bottle-gourd-1.jpg?raw=true", "fruit-bottle-gourd-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Bottle Gourd", "word":"Bottle Gourd", "imgUrls": ["vegetables-bottle-gourd-1.jpg?raw=true", "vegetables-bottle-gourd-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2196,7 +2199,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Broccoli", "word":"Broccoli", "imgUrls": ["fruit-broccoli-1.jpg?raw=true", "fruit-broccoli-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Broccoli", "word":"Broccoli", "imgUrls": ["vegetables-broccoli-1.jpg?raw=true", "vegetables-broccoli-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2209,7 +2212,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["fruit-drumstick-1.jpg?raw=true", "fruit-drumstick-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["vegetables-drumstick-1.jpg?raw=true", "vegetables-drumstick-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,7 +2225,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cabbage", "word":"Cabbage", "imgUrls": ["fruit-cabbage-1.jpg?raw=true", "fruit-cabbage-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Cabbage", "word":"Cabbage", "imgUrls": ["vegetables-cabbage-1.jpg?raw=true", "vegetables-cabbage-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2235,20 +2238,20 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Carrot", "word":"Carrot", "imgUrls": ["fruit-carrot-1.jpg?raw=true", "fruit-carrot-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Carrot", "word":"Carrot", "imgUrls": ["vegetables-carrot-1.jpg?raw=true", "vegetables-carrot-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Cauliflower </v>
+        <v>Cauli Flower</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cauliflower ", "word":"Cauliflower ", "imgUrls": ["fruit-cauliflower -1.jpg?raw=true", "fruit-cauliflower -2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Cauli Flower", "word":"Cauli Flower", "imgUrls": ["vegetables-cauli-flower-1.jpg?raw=true", "vegetables-cauli-flower-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2261,7 +2264,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Celery", "word":"Celery", "imgUrls": ["fruit-celery-1.jpg?raw=true", "fruit-celery-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Celery", "word":"Celery", "imgUrls": ["vegetables-celery-1.jpg?raw=true", "vegetables-celery-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,7 +2277,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Chilli", "word":"Chilli", "imgUrls": ["fruit-chilli-1.jpg?raw=true", "fruit-chilli-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Chilli", "word":"Chilli", "imgUrls": ["vegetables-chilli-1.jpg?raw=true", "vegetables-chilli-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2287,7 +2290,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Coriander", "word":"Coriander", "imgUrls": ["fruit-coriander-1.jpg?raw=true", "fruit-coriander-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Coriander", "word":"Coriander", "imgUrls": ["vegetables-coriander-1.jpg?raw=true", "vegetables-coriander-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2300,7 +2303,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Corn", "word":"Corn", "imgUrls": ["fruit-corn-1.jpg?raw=true", "fruit-corn-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Corn", "word":"Corn", "imgUrls": ["vegetables-corn-1.jpg?raw=true", "vegetables-corn-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2313,7 +2316,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Cucumber", "word":"Cucumber", "imgUrls": ["fruit-cucumber-1.jpg?raw=true", "fruit-cucumber-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Cucumber", "word":"Cucumber", "imgUrls": ["vegetables-cucumber-1.jpg?raw=true", "vegetables-cucumber-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2326,7 +2329,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["fruit-drumstick-1.jpg?raw=true", "fruit-drumstick-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Drumstick", "word":"Drumstick", "imgUrls": ["vegetables-drumstick-1.jpg?raw=true", "vegetables-drumstick-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2339,7 +2342,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Eggplant", "word":"Eggplant", "imgUrls": ["fruit-eggplant-1.jpg?raw=true", "fruit-eggplant-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Eggplant", "word":"Eggplant", "imgUrls": ["vegetables-eggplant-1.jpg?raw=true", "vegetables-eggplant-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2352,7 +2355,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Garlic", "word":"Garlic", "imgUrls": ["fruit-garlic-1.jpg?raw=true", "fruit-garlic-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Garlic", "word":"Garlic", "imgUrls": ["vegetables-garlic-1.jpg?raw=true", "vegetables-garlic-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,7 +2368,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Ginger", "word":"Ginger", "imgUrls": ["fruit-ginger-1.jpg?raw=true", "fruit-ginger-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Ginger", "word":"Ginger", "imgUrls": ["vegetables-ginger-1.jpg?raw=true", "vegetables-ginger-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2378,7 +2381,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Lady Finger", "word":"Lady Finger", "imgUrls": ["fruit-lady-finger-1.jpg?raw=true", "fruit-lady-finger-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Lady Finger", "word":"Lady Finger", "imgUrls": ["vegetables-lady-finger-1.jpg?raw=true", "vegetables-lady-finger-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2391,7 +2394,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Lattuce", "word":"Lattuce", "imgUrls": ["fruit-lattuce-1.jpg?raw=true", "fruit-lattuce-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Lattuce", "word":"Lattuce", "imgUrls": ["vegetables-lattuce-1.jpg?raw=true", "vegetables-lattuce-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2404,7 +2407,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Leek", "word":"Leek", "imgUrls": ["fruit-leek-1.jpg?raw=true", "fruit-leek-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Leek", "word":"Leek", "imgUrls": ["vegetables-leek-1.jpg?raw=true", "vegetables-leek-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2417,7 +2420,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Lemon", "word":"Lemon", "imgUrls": ["fruit-lemon-1.jpg?raw=true", "fruit-lemon-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Lemon", "word":"Lemon", "imgUrls": ["vegetables-lemon-1.jpg?raw=true", "vegetables-lemon-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2430,7 +2433,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Lettuce", "word":"Lettuce", "imgUrls": ["fruit-lettuce-1.jpg?raw=true", "fruit-lettuce-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Lettuce", "word":"Lettuce", "imgUrls": ["vegetables-lettuce-1.jpg?raw=true", "vegetables-lettuce-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2443,7 +2446,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Mint", "word":"Mint", "imgUrls": ["fruit-mint-1.jpg?raw=true", "fruit-mint-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Mint", "word":"Mint", "imgUrls": ["vegetables-mint-1.jpg?raw=true", "vegetables-mint-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2456,7 +2459,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Mushroom", "word":"Mushroom", "imgUrls": ["fruit-mushroom-1.jpg?raw=true", "fruit-mushroom-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Mushroom", "word":"Mushroom", "imgUrls": ["vegetables-mushroom-1.jpg?raw=true", "vegetables-mushroom-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2469,7 +2472,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Onion", "word":"Onion", "imgUrls": ["fruit-onion-1.jpg?raw=true", "fruit-onion-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Onion", "word":"Onion", "imgUrls": ["vegetables-onion-1.jpg?raw=true", "vegetables-onion-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2482,7 +2485,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Peas", "word":"Peas", "imgUrls": ["fruit-peas-1.jpg?raw=true", "fruit-peas-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Peas", "word":"Peas", "imgUrls": ["vegetables-peas-1.jpg?raw=true", "vegetables-peas-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2495,7 +2498,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pointed Gourd ", "word":"Pointed Gourd ", "imgUrls": ["fruit-pointed-gourd -1.jpg?raw=true", "fruit-pointed-gourd -2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pointed Gourd ", "word":"Pointed Gourd ", "imgUrls": ["vegetables-pointed-gourd -1.jpg?raw=true", "vegetables-pointed-gourd -2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,7 +2511,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pointed Gourd", "word":"Pointed Gourd", "imgUrls": ["fruit-pointed-gourd-1.jpg?raw=true", "fruit-pointed-gourd-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pointed Gourd", "word":"Pointed Gourd", "imgUrls": ["vegetables-pointed-gourd-1.jpg?raw=true", "vegetables-pointed-gourd-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2521,7 +2524,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["fruit-potato-1.jpg?raw=true", "fruit-potato-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["vegetables-potato-1.jpg?raw=true", "vegetables-potato-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2534,7 +2537,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["fruit-pumpkin-1.jpg?raw=true", "fruit-pumpkin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["vegetables-pumpkin-1.jpg?raw=true", "vegetables-pumpkin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2547,7 +2550,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Red Chilli", "word":"Red Chilli", "imgUrls": ["fruit-red-chilli-1.jpg?raw=true", "fruit-red-chilli-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Red Chilli", "word":"Red Chilli", "imgUrls": ["vegetables-red-chilli-1.jpg?raw=true", "vegetables-red-chilli-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2560,7 +2563,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Tomato", "word":"Tomato", "imgUrls": ["fruit-tomato-1.jpg?raw=true", "fruit-tomato-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Tomato", "word":"Tomato", "imgUrls": ["vegetables-tomato-1.jpg?raw=true", "vegetables-tomato-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2573,7 +2576,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Turnip", "word":"Turnip", "imgUrls": ["fruit-turnip-1.jpg?raw=true", "fruit-turnip-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Turnip", "word":"Turnip", "imgUrls": ["vegetables-turnip-1.jpg?raw=true", "vegetables-turnip-2.jpg?raw=true"]}, </v>
       </c>
     </row>
   </sheetData>
@@ -3423,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3442,7 @@
         <v>93</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>MID(A1, FIND( "-", A1) + 1, (LEN(A1) - FIND( "-", A1)-2 -4))</f>
+        <f>TRIM(MID(A1, FIND( "-", A1) + 1, (LEN(A1) - FIND( "-", A1)-2 -4)))</f>
         <v>cock</v>
       </c>
     </row>
@@ -3448,7 +3451,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B65" si="0">MID(A2, FIND( "-", A2) + 1, (LEN(A2) - FIND( "-", A2)-2 -4))</f>
+        <f t="shared" ref="B2:B65" si="0">TRIM(MID(A2, FIND( "-", A2) + 1, (LEN(A2) - FIND( "-", A2)-2 -4)))</f>
         <v>cock</v>
       </c>
     </row>
@@ -4024,7 +4027,7 @@
         <v>158</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" ref="B66:B125" si="1">MID(A66, FIND( "-", A66) + 1, (LEN(A66) - FIND( "-", A66)-2 -4))</f>
+        <f t="shared" ref="B66:B125" si="1">TRIM(MID(A66, FIND( "-", A66) + 1, (LEN(A66) - FIND( "-", A66)-2 -4)))</f>
         <v>beetroot</v>
       </c>
     </row>
@@ -4124,7 +4127,7 @@
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">cauliflower </v>
+        <v>cauliflower</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -4133,7 +4136,7 @@
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">cauliflower </v>
+        <v>cauliflower</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -4439,7 +4442,7 @@
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">pointed-gourd </v>
+        <v>pointed-gourd</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">

--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -2100,11 +2100,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2142,11 +2140,11 @@
         <v>238</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B36" si="0">PROPER(SUBSTITUTE(A3, "-", " "))</f>
+        <f t="shared" ref="B3:B35" si="0">PROPER(SUBSTITUTE(A3, "-", " "))</f>
         <v>Asparagus</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C36" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""vegetables-"&amp;A3&amp;"-1.jpg?raw=true"", ""vegetables-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
+        <f t="shared" ref="C3:C35" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""vegetables-"&amp;A3&amp;"-1.jpg?raw=true"", ""vegetables-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
         <v xml:space="preserve">{"label":"Asparagus", "word":"Asparagus", "imgUrls": ["vegetables-asparagus-1.jpg?raw=true", "vegetables-asparagus-2.jpg?raw=true"]}, </v>
       </c>
     </row>
@@ -2490,91 +2488,78 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Pointed Gourd </v>
+        <v>Pointed Gourd</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pointed Gourd ", "word":"Pointed Gourd ", "imgUrls": ["vegetables-pointed-gourd -1.jpg?raw=true", "vegetables-pointed-gourd -2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pointed Gourd", "word":"Pointed Gourd", "imgUrls": ["vegetables-pointed-gourd-1.jpg?raw=true", "vegetables-pointed-gourd-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>Pointed Gourd</v>
+        <v>Potato</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pointed Gourd", "word":"Pointed Gourd", "imgUrls": ["vegetables-pointed-gourd-1.jpg?raw=true", "vegetables-pointed-gourd-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["vegetables-potato-1.jpg?raw=true", "vegetables-potato-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>Potato</v>
+        <v>Pumpkin</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Potato", "word":"Potato", "imgUrls": ["vegetables-potato-1.jpg?raw=true", "vegetables-potato-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["vegetables-pumpkin-1.jpg?raw=true", "vegetables-pumpkin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>Pumpkin</v>
+        <v>Red Chilli</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pumpkin", "word":"Pumpkin", "imgUrls": ["vegetables-pumpkin-1.jpg?raw=true", "vegetables-pumpkin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Red Chilli", "word":"Red Chilli", "imgUrls": ["vegetables-red-chilli-1.jpg?raw=true", "vegetables-red-chilli-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>Red Chilli</v>
+        <v>Tomato</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Red Chilli", "word":"Red Chilli", "imgUrls": ["vegetables-red-chilli-1.jpg?raw=true", "vegetables-red-chilli-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Tomato", "word":"Tomato", "imgUrls": ["vegetables-tomato-1.jpg?raw=true", "vegetables-tomato-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>Tomato</v>
+        <v>Turnip</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Tomato", "word":"Tomato", "imgUrls": ["vegetables-tomato-1.jpg?raw=true", "vegetables-tomato-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Turnip</v>
-      </c>
-      <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{"label":"Turnip", "word":"Turnip", "imgUrls": ["vegetables-turnip-1.jpg?raw=true", "vegetables-turnip-2.jpg?raw=true"]}, </v>
       </c>

--- a/data/List.xlsx
+++ b/data/List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MainData" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Calculate" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Birds!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Birds!$A$1:$B$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fruits!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vegetables!$A$1:$B$28</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -1769,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,11 +1811,11 @@
         <v>216</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B24" si="0">PROPER(SUBSTITUTE(A3, "-", " "))</f>
+        <f t="shared" ref="B3:B23" si="0">PROPER(SUBSTITUTE(A3, "-", " "))</f>
         <v>Crane</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C24" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""bird-"&amp;A3&amp;"-1.jpg?raw=true"", ""bird-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
+        <f t="shared" ref="C3:C23" si="1">"{""label"":"""&amp;B3&amp;""", ""word"":"""&amp;B3&amp;""", ""imgUrls"": [""bird-"&amp;A3&amp;"-1.jpg?raw=true"", ""bird-"&amp;A3&amp;"-2.jpg?raw=true""]}, "</f>
         <v xml:space="preserve">{"label":"Crane", "word":"Crane", "imgUrls": ["bird-crane-1.jpg?raw=true", "bird-crane-2.jpg?raw=true"]}, </v>
       </c>
     </row>
@@ -1847,247 +1847,234 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Flamigo</v>
+        <v>Flamingo</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Flamigo", "word":"Flamigo", "imgUrls": ["bird-flamigo-1.jpg?raw=true", "bird-flamigo-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Flamingo", "word":"Flamingo", "imgUrls": ["bird-flamingo-1.jpg?raw=true", "bird-flamingo-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Flamingo</v>
+        <v>Hen</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Flamingo", "word":"Flamingo", "imgUrls": ["bird-flamingo-1.jpg?raw=true", "bird-flamingo-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Hen", "word":"Hen", "imgUrls": ["bird-hen-1.jpg?raw=true", "bird-hen-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Hen</v>
+        <v>Hornbill</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Hen", "word":"Hen", "imgUrls": ["bird-hen-1.jpg?raw=true", "bird-hen-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Hornbill", "word":"Hornbill", "imgUrls": ["bird-hornbill-1.jpg?raw=true", "bird-hornbill-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Hornbill</v>
+        <v>Humming Bird</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Hornbill", "word":"Hornbill", "imgUrls": ["bird-hornbill-1.jpg?raw=true", "bird-hornbill-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Humming Bird", "word":"Humming Bird", "imgUrls": ["bird-humming-bird-1.jpg?raw=true", "bird-humming-bird-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Humming Bird</v>
+        <v>Kingfisher</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Humming Bird", "word":"Humming Bird", "imgUrls": ["bird-humming-bird-1.jpg?raw=true", "bird-humming-bird-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kingfisher", "word":"Kingfisher", "imgUrls": ["bird-kingfisher-1.jpg?raw=true", "bird-kingfisher-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Kingfisher</v>
+        <v>Kite</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Kingfisher", "word":"Kingfisher", "imgUrls": ["bird-kingfisher-1.jpg?raw=true", "bird-kingfisher-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kite", "word":"Kite", "imgUrls": ["bird-kite-1.jpg?raw=true", "bird-kite-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Kite</v>
+        <v>Kiwi</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Kite", "word":"Kite", "imgUrls": ["bird-kite-1.jpg?raw=true", "bird-kite-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Kiwi", "word":"Kiwi", "imgUrls": ["bird-kiwi-1.jpg?raw=true", "bird-kiwi-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Kiwi</v>
+        <v>Nightingale</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Kiwi", "word":"Kiwi", "imgUrls": ["bird-kiwi-1.jpg?raw=true", "bird-kiwi-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Nightingale", "word":"Nightingale", "imgUrls": ["bird-nightingale-1.jpg?raw=true", "bird-nightingale-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Nightingale</v>
+        <v>Ostrich</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Nightingale", "word":"Nightingale", "imgUrls": ["bird-nightingale-1.jpg?raw=true", "bird-nightingale-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Ostrich", "word":"Ostrich", "imgUrls": ["bird-ostrich-1.jpg?raw=true", "bird-ostrich-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Ostrich</v>
+        <v>Pelican</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Ostrich", "word":"Ostrich", "imgUrls": ["bird-ostrich-1.jpg?raw=true", "bird-ostrich-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pelican", "word":"Pelican", "imgUrls": ["bird-pelican-1.jpg?raw=true", "bird-pelican-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>Pelican</v>
+        <v>Penguin</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pelican", "word":"Pelican", "imgUrls": ["bird-pelican-1.jpg?raw=true", "bird-pelican-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Penguin", "word":"Penguin", "imgUrls": ["bird-penguin-1.jpg?raw=true", "bird-penguin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>Penguin</v>
+        <v>Pigeon</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Penguin", "word":"Penguin", "imgUrls": ["bird-penguin-1.jpg?raw=true", "bird-penguin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Pigeon", "word":"Pigeon", "imgUrls": ["bird-pigeon-1.jpg?raw=true", "bird-pigeon-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>Pigeon</v>
+        <v>Robin</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Pigeon", "word":"Pigeon", "imgUrls": ["bird-pigeon-1.jpg?raw=true", "bird-pigeon-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Robin", "word":"Robin", "imgUrls": ["bird-robin-1.jpg?raw=true", "bird-robin-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>Robin</v>
+        <v>Seagull</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Robin", "word":"Robin", "imgUrls": ["bird-robin-1.jpg?raw=true", "bird-robin-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Seagull", "word":"Seagull", "imgUrls": ["bird-seagull-1.jpg?raw=true", "bird-seagull-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>Seagull</v>
+        <v>Swan</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Seagull", "word":"Seagull", "imgUrls": ["bird-seagull-1.jpg?raw=true", "bird-seagull-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Swan", "word":"Swan", "imgUrls": ["bird-swan-1.jpg?raw=true", "bird-swan-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>Swan</v>
+        <v>Turkey</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Swan", "word":"Swan", "imgUrls": ["bird-swan-1.jpg?raw=true", "bird-swan-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Turkey", "word":"Turkey", "imgUrls": ["bird-turkey-1.jpg?raw=true", "bird-turkey-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>Turkey</v>
+        <v>Vulture</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Turkey", "word":"Turkey", "imgUrls": ["bird-turkey-1.jpg?raw=true", "bird-turkey-2.jpg?raw=true"]}, </v>
+        <v xml:space="preserve">{"label":"Vulture", "word":"Vulture", "imgUrls": ["bird-vulture-1.jpg?raw=true", "bird-vulture-2.jpg?raw=true"]}, </v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>Vulture</v>
+        <v>Woodpecker</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{"label":"Vulture", "word":"Vulture", "imgUrls": ["bird-vulture-1.jpg?raw=true", "bird-vulture-2.jpg?raw=true"]}, </v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Woodpecker</v>
-      </c>
-      <c r="C24" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">{"label":"Woodpecker", "word":"Woodpecker", "imgUrls": ["bird-woodpecker-1.jpg?raw=true", "bird-woodpecker-2.jpg?raw=true"]}, </v>
       </c>
@@ -2102,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
